--- a/Dalmas Flowchart.xlsx
+++ b/Dalmas Flowchart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javieraramayo/Xalmas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E2F1C35-F1A5-3F41-9F5A-2395353B6323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A249E10-AC3C-834E-A382-3FA168B50ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="880" windowWidth="25040" windowHeight="16140" xr2:uid="{AA7CDC6E-7A2B-8D49-9164-C2BD9AF55F39}"/>
+    <workbookView xWindow="1480" yWindow="500" windowWidth="28880" windowHeight="17500" xr2:uid="{AA7CDC6E-7A2B-8D49-9164-C2BD9AF55F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,12 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,13 +146,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8618</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>52615</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -228,14 +227,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>791935</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>546101</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -251,8 +250,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4343400" y="50800"/>
-          <a:ext cx="1401535" cy="292100"/>
+          <a:off x="1689101" y="381000"/>
+          <a:ext cx="990600" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -311,13 +310,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12451</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>38349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>801123</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>154463</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -335,8 +334,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1319804" y="685800"/>
-          <a:ext cx="1610437" cy="788467"/>
+          <a:off x="1320551" y="1016249"/>
+          <a:ext cx="1614172" cy="801914"/>
           <a:chOff x="5553075" y="1162050"/>
           <a:chExt cx="400050" cy="266700"/>
         </a:xfrm>
@@ -491,13 +490,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>254746</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>663413</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>154214</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -515,8 +514,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1562099" y="1955551"/>
-          <a:ext cx="1230432" cy="788467"/>
+          <a:off x="1562846" y="2298700"/>
+          <a:ext cx="1234167" cy="801914"/>
           <a:chOff x="5553075" y="1162050"/>
           <a:chExt cx="400050" cy="266700"/>
         </a:xfrm>
@@ -671,13 +670,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>202453</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>162609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>611120</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>278723</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -695,8 +694,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3626473" y="3150844"/>
-          <a:ext cx="1230431" cy="713761"/>
+          <a:off x="3631453" y="3515409"/>
+          <a:ext cx="1234167" cy="725714"/>
           <a:chOff x="5553075" y="1162050"/>
           <a:chExt cx="400050" cy="266700"/>
         </a:xfrm>
@@ -851,13 +850,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>573767</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>179614</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -875,8 +874,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5431865" y="5404971"/>
-          <a:ext cx="1230431" cy="751114"/>
+          <a:off x="5435600" y="5803900"/>
+          <a:ext cx="1234167" cy="763814"/>
           <a:chOff x="5553075" y="1162050"/>
           <a:chExt cx="400050" cy="266700"/>
         </a:xfrm>
@@ -1031,13 +1030,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>637267</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>166914</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1055,8 +1054,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5495365" y="1968251"/>
-          <a:ext cx="1230431" cy="788467"/>
+          <a:off x="5499100" y="2311400"/>
+          <a:ext cx="1234167" cy="801914"/>
           <a:chOff x="5553075" y="1162050"/>
           <a:chExt cx="400050" cy="266700"/>
         </a:xfrm>
@@ -1211,13 +1210,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>242296</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>151154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>650963</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>263284</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1235,8 +1234,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1549649" y="3139389"/>
-          <a:ext cx="1230432" cy="709777"/>
+          <a:off x="1550396" y="3503954"/>
+          <a:ext cx="1234167" cy="721730"/>
           <a:chOff x="5553075" y="1162050"/>
           <a:chExt cx="400050" cy="266700"/>
         </a:xfrm>
@@ -1391,13 +1390,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>49804</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>37851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>862630</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>153965</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1415,8 +1414,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1357157" y="4171576"/>
-          <a:ext cx="1634591" cy="713762"/>
+          <a:off x="1357904" y="4546351"/>
+          <a:ext cx="1638326" cy="725714"/>
           <a:chOff x="5553075" y="1162050"/>
           <a:chExt cx="400050" cy="266700"/>
         </a:xfrm>
@@ -1558,13 +1557,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>137957</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>63002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>861857</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>179116</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1582,8 +1581,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3561977" y="4196727"/>
-          <a:ext cx="1545664" cy="713762"/>
+          <a:off x="3566957" y="4571502"/>
+          <a:ext cx="1549400" cy="725714"/>
           <a:chOff x="5553075" y="1162050"/>
           <a:chExt cx="400050" cy="266700"/>
         </a:xfrm>
@@ -1738,13 +1737,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>624567</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>166914</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1762,8 +1761,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7312959" y="5392271"/>
-          <a:ext cx="1230432" cy="751114"/>
+          <a:off x="7315200" y="5791200"/>
+          <a:ext cx="1234167" cy="763814"/>
           <a:chOff x="5553075" y="1162050"/>
           <a:chExt cx="400050" cy="266700"/>
         </a:xfrm>
@@ -1918,13 +1917,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>24903</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>38349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>784413</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>154463</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1942,8 +1941,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7121962" y="685800"/>
-          <a:ext cx="1581275" cy="788467"/>
+          <a:off x="7124203" y="1016249"/>
+          <a:ext cx="1585010" cy="801914"/>
           <a:chOff x="5553075" y="1162050"/>
           <a:chExt cx="400050" cy="266700"/>
         </a:xfrm>
@@ -2098,13 +2097,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>624567</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>166914</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2122,8 +2121,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9093449" y="1968251"/>
-          <a:ext cx="1230432" cy="788467"/>
+          <a:off x="9093200" y="2311400"/>
+          <a:ext cx="1234167" cy="801914"/>
           <a:chOff x="5553075" y="1162050"/>
           <a:chExt cx="400050" cy="266700"/>
         </a:xfrm>
@@ -2278,13 +2277,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>52045</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>52045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>971674</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>164175</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2302,8 +2301,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5318810" y="6638614"/>
-          <a:ext cx="1741393" cy="821836"/>
+          <a:off x="5322545" y="7062445"/>
+          <a:ext cx="1745129" cy="836030"/>
           <a:chOff x="5553075" y="1162050"/>
           <a:chExt cx="400050" cy="266700"/>
         </a:xfrm>
@@ -2458,13 +2457,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>435784</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>703034</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>136961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2540,13 +2539,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>759509</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>161863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>103601</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>195225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2612,13 +2611,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>780316</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>174314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>821764</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2670,13 +2669,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>784411</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>136960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>784411</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>62254</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2726,13 +2725,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>820768</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>161863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>135964</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2782,13 +2781,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>820768</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>236568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>36356</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2838,13 +2837,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>49804</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>196335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>242296</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>85522</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2900,13 +2899,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>650963</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>196334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>202453</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>11063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2959,13 +2958,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>765735</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>292596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>74705</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>62254</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3030,13 +3029,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>611120</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>98469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>11063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3089,13 +3088,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>634999</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>24902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161863</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>24902</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3145,13 +3144,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>753284</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>68479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>62253</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>186765</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3216,13 +3215,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>37353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9351</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3274,13 +3273,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>908921</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>37353</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>361078</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3332,13 +3331,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>647450</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>224117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>522666</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1493</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3684,10 +3683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6467B0-44F2-B847-A5D5-71359E45114C}">
-  <dimension ref="B1:N32"/>
+  <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="N34" sqref="A1:N34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3708,148 +3707,118 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+    <row r="2" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+    <row r="3" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+    <row r="9" spans="2:14" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="43" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+    <row r="18" spans="2:14" ht="43" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="29" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
+    <row r="30" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Dalmas Flowchart.xlsx
+++ b/Dalmas Flowchart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javieraramayo/Xalmas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A249E10-AC3C-834E-A382-3FA168B50ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B8C81F-9B19-B34F-A677-637D03408028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="500" windowWidth="28880" windowHeight="17500" xr2:uid="{AA7CDC6E-7A2B-8D49-9164-C2BD9AF55F39}"/>
   </bookViews>
